--- a/YahooTemperature.xlsx
+++ b/YahooTemperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
   <si>
     <t>確認日時</t>
     <phoneticPr fontId="1"/>
@@ -488,9 +488,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1362,10 +1364,266 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>44508.000763888886</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>44508.000763888886</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>44509.000856481478</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>44509.000856481478</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>44510.000706018516</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>44510.000706018516</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>44511.000891203701</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>18</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>44511.000891203701</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1376,9 +1634,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1802,10 +2062,266 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44508.000775462962</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+      <c r="I14">
+        <v>-2</v>
+      </c>
+      <c r="J14">
+        <v>-2</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>44508.000775462962</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>44509.000868055555</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>44509.000868055555</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>44510.000706018516</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>-2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>44510.000706018516</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>44511.000902777778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>44511.000902777778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1815,9 +2331,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2202,24 +2720,256 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="1">
+        <v>44508.000787037039</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.1429</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="1">
+        <v>44508.000787037039</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1429</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.1429</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.1429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>44509.000868055555</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>44509.000868055555</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>44510.000717592593</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.1111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>44510.000717592593</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.1111</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.1111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>44511.000902777778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>44511.000902777778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
